--- a/测试BDPCM.xlsx
+++ b/测试BDPCM.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\微云同步助手\1449656965\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\EI论文\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1263F00B-EA82-4B05-8E10-27F582C97E91}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3760DEF7-A22D-4FD1-97B3-2FEF2079B92E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10500" xr2:uid="{22A0C5B1-5D8F-44EC-A35D-1B0660B83CA2}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="26940" windowHeight="15840" activeTab="1" xr2:uid="{22A0C5B1-5D8F-44EC-A35D-1B0660B83CA2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="VVC" sheetId="1" r:id="rId1"/>
+    <sheet name="HEVC" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>VVC + DPCM(默认配置)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -122,7 +123,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VVC + DPCM + R-MED - DPCM部分不做RMED</t>
+    <t>HEVC 无 RDPCM(默认配置)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEVC + RDPCM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEVC + RDPCM + R-MED</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEVC 无 RDPCM + R-MED</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +143,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,6 +156,15 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -169,11 +191,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -490,25 +515,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E6B0D0-1736-43FC-8E24-9183C20B43CE}">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="1"/>
+    <col min="4" max="4" width="8.625" style="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6640625" style="1"/>
-    <col min="7" max="7" width="20.08203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="8.6640625" style="1"/>
-    <col min="11" max="11" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="8.625" style="2"/>
+    <col min="7" max="7" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.625" style="2"/>
+    <col min="10" max="10" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -524,11 +549,8 @@
       <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -545,30 +567,19 @@
       <c r="E2">
         <v>18474064</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="2">
         <f>(E2-$B2)/$B2</f>
         <v>-5.9890765730923494E-2</v>
       </c>
       <c r="G2">
         <v>18641984</v>
       </c>
-      <c r="H2" s="1">
-        <f>(G2-$B2)/$B2</f>
-        <v>-5.1345643086633461E-2</v>
-      </c>
-      <c r="I2" s="1">
-        <f>(G2-$C2)/$C2</f>
+      <c r="H2" s="2">
+        <f t="shared" ref="H2:H26" si="0">(G2-$C2)/$C2</f>
         <v>-9.6714172635600559E-2</v>
       </c>
-      <c r="J2">
-        <v>18576520</v>
-      </c>
-      <c r="K2" s="1">
-        <f>(J2-$B2)/$B2</f>
-        <v>-5.4676978894076307E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -579,36 +590,25 @@
         <v>21258352</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:F26" si="0">(C3-$B3)/$B3</f>
+        <f t="shared" ref="D3:F26" si="1">(C3-$B3)/$B3</f>
         <v>6.5138200119609357E-2</v>
       </c>
       <c r="E3">
         <v>19206440</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" si="0"/>
+      <c r="F3" s="2">
+        <f t="shared" si="1"/>
         <v>-3.7671738039464678E-2</v>
       </c>
       <c r="G3">
         <v>19430136</v>
       </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:I3" si="1">(G3-$B3)/$B3</f>
-        <v>-2.6463571253348982E-2</v>
-      </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:I26" si="2">(G3-$C3)/$C3</f>
+      <c r="H3" s="2">
+        <f t="shared" si="0"/>
         <v>-8.5999893124358837E-2</v>
       </c>
-      <c r="J3">
-        <v>19254488</v>
-      </c>
-      <c r="K3" s="1">
-        <f t="shared" ref="K3" si="3">(J3-$B3)/$B3</f>
-        <v>-3.5264319052360361E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -619,36 +619,25 @@
         <v>10335248</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3052230092506554E-2</v>
       </c>
       <c r="E4">
         <v>10148888</v>
       </c>
-      <c r="F4" s="1">
-        <f t="shared" si="0"/>
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
         <v>-5.2146188113648892E-3</v>
       </c>
       <c r="G4">
         <v>10188816</v>
       </c>
-      <c r="H4" s="1">
-        <f t="shared" ref="H4:I4" si="4">(G4-$B4)/$B4</f>
-        <v>-1.3009101666247144E-3</v>
-      </c>
-      <c r="I4" s="1">
-        <f t="shared" si="2"/>
+      <c r="H4" s="2">
+        <f t="shared" si="0"/>
         <v>-1.4168213476831906E-2</v>
       </c>
-      <c r="J4">
-        <v>10149544</v>
-      </c>
-      <c r="K4" s="1">
-        <f t="shared" ref="K4" si="5">(J4-$B4)/$B4</f>
-        <v>-5.1503182485781339E-3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -659,36 +648,25 @@
         <v>11801712</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.2607114991010143E-2</v>
       </c>
       <c r="E5">
         <v>11189480</v>
       </c>
-      <c r="F5" s="1">
-        <f t="shared" si="0"/>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
         <v>-1.1479736071376071E-2</v>
       </c>
       <c r="G5">
         <v>11310280</v>
       </c>
-      <c r="H5" s="1">
-        <f t="shared" ref="H5:I5" si="6">(G5-$B5)/$B5</f>
-        <v>-8.0781495595535601E-4</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" si="2"/>
+      <c r="H5" s="2">
+        <f t="shared" si="0"/>
         <v>-4.1640738225098187E-2</v>
       </c>
-      <c r="J5">
-        <v>11185208</v>
-      </c>
-      <c r="K5" s="1">
-        <f t="shared" ref="K5" si="7">(J5-$B5)/$B5</f>
-        <v>-1.1857140434000882E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -699,36 +677,25 @@
         <v>12500888</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.2900026576608695E-2</v>
       </c>
       <c r="E6">
         <v>12211696</v>
       </c>
-      <c r="F6" s="1">
-        <f t="shared" si="0"/>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
         <v>-1.0532115562873126E-2</v>
       </c>
       <c r="G6">
         <v>12233952</v>
       </c>
-      <c r="H6" s="1">
-        <f t="shared" ref="H6:I6" si="8">(G6-$B6)/$B6</f>
-        <v>-8.7287954314161451E-3</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="2"/>
+      <c r="H6" s="2">
+        <f t="shared" si="0"/>
         <v>-2.1353363057088424E-2</v>
       </c>
-      <c r="J6">
-        <v>12211328</v>
-      </c>
-      <c r="K6" s="1">
-        <f t="shared" ref="K6" si="9">(J6-$B6)/$B6</f>
-        <v>-1.0561933221409079E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -739,36 +706,25 @@
         <v>10073872</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.0190676666140351E-2</v>
       </c>
       <c r="E7">
         <v>9450768</v>
       </c>
-      <c r="F7" s="1">
-        <f t="shared" si="0"/>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
         <v>-3.3530197630592694E-2</v>
       </c>
       <c r="G7">
         <v>9473160</v>
       </c>
-      <c r="H7" s="1">
-        <f t="shared" ref="H7:I7" si="10">(G7-$B7)/$B7</f>
-        <v>-3.1240310521454498E-2</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="2"/>
+      <c r="H7" s="2">
+        <f t="shared" si="0"/>
         <v>-5.9630696121610441E-2</v>
       </c>
-      <c r="J7">
-        <v>9461416</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" ref="K7" si="11">(J7-$B7)/$B7</f>
-        <v>-3.2441294542967493E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -779,36 +735,25 @@
         <v>11948136</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.7716019181979013E-2</v>
       </c>
       <c r="E8">
         <v>11325552</v>
       </c>
-      <c r="F8" s="1">
-        <f t="shared" si="0"/>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
         <v>-2.583539252662501E-2</v>
       </c>
       <c r="G8">
         <v>11366056</v>
       </c>
-      <c r="H8" s="1">
-        <f t="shared" ref="H8:I8" si="12">(G8-$B8)/$B8</f>
-        <v>-2.2351450793709777E-2</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="2"/>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
         <v>-4.8717222502321703E-2</v>
       </c>
-      <c r="J8">
-        <v>11333760</v>
-      </c>
-      <c r="K8" s="1">
-        <f t="shared" ref="K8" si="13">(J8-$B8)/$B8</f>
-        <v>-2.5129383398050837E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -819,36 +764,25 @@
         <v>2104952</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8.7913014806806078E-3</v>
       </c>
       <c r="E9">
         <v>2061184</v>
       </c>
-      <c r="F9" s="1">
-        <f t="shared" si="0"/>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
         <v>-1.2184368122809843E-2</v>
       </c>
       <c r="G9">
         <v>2064464</v>
       </c>
-      <c r="H9" s="1">
-        <f t="shared" ref="H9:I9" si="14">(G9-$B9)/$B9</f>
-        <v>-1.061243894397031E-2</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="2"/>
+      <c r="H9" s="2">
+        <f t="shared" si="0"/>
         <v>-1.9234642880217697E-2</v>
       </c>
-      <c r="J9">
-        <v>2061504</v>
-      </c>
-      <c r="K9" s="1">
-        <f t="shared" ref="K9" si="15">(J9-$B9)/$B9</f>
-        <v>-1.2031009178532816E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -859,36 +793,25 @@
         <v>2291440</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1607684384161581E-2</v>
       </c>
       <c r="E10">
         <v>2202224</v>
       </c>
-      <c r="F10" s="1">
-        <f t="shared" si="0"/>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
         <v>-8.5574131833144849E-3</v>
       </c>
       <c r="G10">
         <v>2220480</v>
       </c>
-      <c r="H10" s="1">
-        <f t="shared" ref="H10:I10" si="16">(G10-$B10)/$B10</f>
-        <v>-3.3855085826244176E-4</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="2"/>
+      <c r="H10" s="2">
+        <f t="shared" si="0"/>
         <v>-3.0967426596376076E-2</v>
       </c>
-      <c r="J10">
-        <v>2200528</v>
-      </c>
-      <c r="K10" s="1">
-        <f t="shared" ref="K10" si="17">(J10-$B10)/$B10</f>
-        <v>-9.3209534168425447E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -899,36 +822,25 @@
         <v>2919048</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.6396847230778318E-2</v>
       </c>
       <c r="E11">
         <v>2824472</v>
       </c>
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
         <v>-6.8580044276041708E-3</v>
       </c>
       <c r="G11">
         <v>2841792</v>
       </c>
-      <c r="H11" s="1">
-        <f t="shared" ref="H11:I11" si="18">(G11-$B11)/$B11</f>
-        <v>-7.6793896994911345E-4</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="2"/>
+      <c r="H11" s="2">
+        <f t="shared" si="0"/>
         <v>-2.6466162940794395E-2</v>
       </c>
-      <c r="J11">
-        <v>2821784</v>
-      </c>
-      <c r="K11" s="1">
-        <f t="shared" ref="K11" si="19">(J11-$B11)/$B11</f>
-        <v>-7.8031600829261572E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -939,36 +851,25 @@
         <v>2312144</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.560986097176437E-2</v>
       </c>
       <c r="E12">
         <v>2160144</v>
       </c>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
         <v>-3.2470976064210982E-2</v>
       </c>
       <c r="G12">
         <v>2170336</v>
       </c>
-      <c r="H12" s="1">
-        <f t="shared" ref="H12:I12" si="20">(G12-$B12)/$B12</f>
-        <v>-2.7905976780851369E-2</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="2"/>
+      <c r="H12" s="2">
+        <f t="shared" si="0"/>
         <v>-6.1331820163450027E-2</v>
       </c>
-      <c r="J12">
-        <v>2162280</v>
-      </c>
-      <c r="K12" s="1">
-        <f t="shared" ref="K12" si="21">(J12-$B12)/$B12</f>
-        <v>-3.1514261143758063E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -979,36 +880,25 @@
         <v>518096</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5155640408400434E-2</v>
       </c>
       <c r="E13">
         <v>468896</v>
       </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
         <v>-2.6944467502282726E-2</v>
       </c>
       <c r="G13">
         <v>478128</v>
       </c>
-      <c r="H13" s="1">
-        <f t="shared" ref="H13:I13" si="22">(G13-$B13)/$B13</f>
-        <v>-7.7861708309122602E-3</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="2"/>
+      <c r="H13" s="2">
+        <f t="shared" si="0"/>
         <v>-7.7144004199993829E-2</v>
       </c>
-      <c r="J13">
-        <v>468840</v>
-      </c>
-      <c r="K13" s="1">
-        <f t="shared" ref="K13" si="23">(J13-$B13)/$B13</f>
-        <v>-2.7060679007221713E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1019,36 +909,25 @@
         <v>676280</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.217338217338217E-2</v>
       </c>
       <c r="E14">
         <v>650296</v>
       </c>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
         <v>-7.4847374847374845E-3</v>
       </c>
       <c r="G14">
         <v>655008</v>
       </c>
-      <c r="H14" s="1">
-        <f t="shared" ref="H14:I14" si="24">(G14-$B14)/$B14</f>
-        <v>-2.9304029304029304E-4</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="2"/>
+      <c r="H14" s="2">
+        <f t="shared" si="0"/>
         <v>-3.1454427160347784E-2</v>
       </c>
-      <c r="J14">
-        <v>649568</v>
-      </c>
-      <c r="K14" s="1">
-        <f t="shared" ref="K14" si="25">(J14-$B14)/$B14</f>
-        <v>-8.5958485958485958E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1059,36 +938,25 @@
         <v>649488</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.4183476516671083E-2</v>
       </c>
       <c r="E15">
         <v>630616</v>
       </c>
-      <c r="F15" s="1">
-        <f t="shared" si="0"/>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
         <v>-5.5759502453670414E-3</v>
       </c>
       <c r="G15">
         <v>634952</v>
       </c>
-      <c r="H15" s="1">
-        <f t="shared" ref="H15:I15" si="26">(G15-$B15)/$B15</f>
-        <v>1.2615272048341723E-3</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="2"/>
+      <c r="H15" s="2">
+        <f t="shared" si="0"/>
         <v>-2.2380706033059888E-2</v>
       </c>
-      <c r="J15">
-        <v>630264</v>
-      </c>
-      <c r="K15" s="1">
-        <f t="shared" ref="K15" si="27">(J15-$B15)/$B15</f>
-        <v>-6.1310222154940773E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1099,36 +967,25 @@
         <v>628824</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.9411230674748341E-2</v>
       </c>
       <c r="E16">
         <v>577792</v>
       </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
         <v>-3.5753384422311824E-2</v>
       </c>
       <c r="G16">
         <v>583360</v>
       </c>
-      <c r="H16" s="1">
-        <f t="shared" ref="H16:I16" si="28">(G16-$B16)/$B16</f>
-        <v>-2.6461242690448854E-2</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="2"/>
+      <c r="H16" s="2">
+        <f t="shared" si="0"/>
         <v>-7.2300039438698269E-2</v>
       </c>
-      <c r="J16">
-        <v>580048</v>
-      </c>
-      <c r="K16" s="1">
-        <f t="shared" ref="K16" si="29">(J16-$B16)/$B16</f>
-        <v>-3.1988464927505275E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1139,36 +996,25 @@
         <v>4050928</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.6489468130590548E-2</v>
       </c>
       <c r="E17">
         <v>3647496</v>
       </c>
-      <c r="F17" s="1">
-        <f t="shared" si="0"/>
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
         <v>-3.9722239188537414E-2</v>
       </c>
       <c r="G17">
         <v>3730240</v>
       </c>
-      <c r="H17" s="1">
-        <f t="shared" ref="H17:I17" si="30">(G17-$B17)/$B17</f>
-        <v>-1.7938192532808758E-2</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="2"/>
+      <c r="H17" s="2">
+        <f t="shared" si="0"/>
         <v>-7.9164082896560989E-2</v>
       </c>
-      <c r="J17">
-        <v>3671824</v>
-      </c>
-      <c r="K17" s="1">
-        <f t="shared" ref="K17" si="31">(J17-$B17)/$B17</f>
-        <v>-3.3317396697957233E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1179,36 +1025,25 @@
         <v>3737544</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.128228207280329E-2</v>
       </c>
       <c r="E18">
         <v>3447128</v>
       </c>
-      <c r="F18" s="1">
-        <f t="shared" si="0"/>
+      <c r="F18" s="2">
+        <f t="shared" si="1"/>
         <v>-3.0404835250887146E-2</v>
       </c>
       <c r="G18">
         <v>3508280</v>
       </c>
-      <c r="H18" s="1">
-        <f t="shared" ref="H18:I18" si="32">(G18-$B18)/$B18</f>
-        <v>-1.3204231294568219E-2</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="2"/>
+      <c r="H18" s="2">
+        <f t="shared" si="0"/>
         <v>-6.1340816322162359E-2</v>
       </c>
-      <c r="J18">
-        <v>3455176</v>
-      </c>
-      <c r="K18" s="1">
-        <f t="shared" ref="K18" si="33">(J18-$B18)/$B18</f>
-        <v>-2.8141124159827904E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1219,36 +1054,25 @@
         <v>3699024</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.9935997359203359E-2</v>
       </c>
       <c r="E19">
         <v>3391608</v>
       </c>
-      <c r="F19" s="1">
-        <f t="shared" si="0"/>
+      <c r="F19" s="2">
+        <f t="shared" si="1"/>
         <v>-2.8152450989381798E-2</v>
       </c>
       <c r="G19">
         <v>3462320</v>
       </c>
-      <c r="H19" s="1">
-        <f t="shared" ref="H19:I19" si="34">(G19-$B19)/$B19</f>
-        <v>-7.8902969062333798E-3</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="2"/>
+      <c r="H19" s="2">
+        <f t="shared" si="0"/>
         <v>-6.3990933824706192E-2</v>
       </c>
-      <c r="J19">
-        <v>3403760</v>
-      </c>
-      <c r="K19" s="1">
-        <f t="shared" ref="K19" si="35">(J19-$B19)/$B19</f>
-        <v>-2.4670358891598965E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -1259,36 +1083,25 @@
         <v>3676352</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.3881587556785255E-2</v>
       </c>
       <c r="E20">
         <v>3298344</v>
       </c>
-      <c r="F20" s="1">
-        <f t="shared" si="0"/>
+      <c r="F20" s="2">
+        <f t="shared" si="1"/>
         <v>-3.653652016227029E-2</v>
       </c>
       <c r="G20">
         <v>3361792</v>
       </c>
-      <c r="H20" s="1">
-        <f t="shared" ref="H20:I20" si="36">(G20-$B20)/$B20</f>
-        <v>-1.8003028546858351E-2</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="2"/>
+      <c r="H20" s="2">
+        <f t="shared" si="0"/>
         <v>-8.5563079922705981E-2</v>
       </c>
-      <c r="J20">
-        <v>3302320</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" ref="K20" si="37">(J20-$B20)/$B20</f>
-        <v>-3.5375109831560447E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -1299,36 +1112,25 @@
         <v>3672120</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.8816609267917985E-2</v>
       </c>
       <c r="E21">
         <v>3336424</v>
       </c>
-      <c r="F21" s="1">
-        <f t="shared" si="0"/>
+      <c r="F21" s="2">
+        <f t="shared" si="1"/>
         <v>-3.7977749430818171E-2</v>
       </c>
       <c r="G21">
         <v>3391592</v>
       </c>
-      <c r="H21" s="1">
-        <f t="shared" ref="H21:I21" si="38">(G21-$B21)/$B21</f>
-        <v>-2.2070645441816583E-2</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="2"/>
+      <c r="H21" s="2">
+        <f t="shared" si="0"/>
         <v>-7.6394017624696359E-2</v>
       </c>
-      <c r="J21">
-        <v>3350264</v>
-      </c>
-      <c r="K21" s="1">
-        <f t="shared" ref="K21" si="39">(J21-$B21)/$B21</f>
-        <v>-3.3987133145874322E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1339,36 +1141,25 @@
         <v>3429472</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6.4624921149748424E-2</v>
       </c>
       <c r="E22">
         <v>3123264</v>
       </c>
-      <c r="F22" s="1">
-        <f t="shared" si="0"/>
+      <c r="F22" s="2">
+        <f t="shared" si="1"/>
         <v>-3.0432471899508769E-2</v>
       </c>
       <c r="G22">
         <v>3177080</v>
       </c>
-      <c r="H22" s="1">
-        <f t="shared" ref="H22:I22" si="40">(G22-$B22)/$B22</f>
-        <v>-1.3726152455409252E-2</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" si="2"/>
+      <c r="H22" s="2">
+        <f t="shared" si="0"/>
         <v>-7.3595002379375024E-2</v>
       </c>
-      <c r="J22">
-        <v>3126824</v>
-      </c>
-      <c r="K22" s="1">
-        <f t="shared" ref="K22" si="41">(J22-$B22)/$B22</f>
-        <v>-2.9327326641202797E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1379,36 +1170,25 @@
         <v>1988072</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.4206539660773463E-2</v>
       </c>
       <c r="E23">
         <v>1937192</v>
       </c>
-      <c r="F23" s="1">
-        <f t="shared" si="0"/>
+      <c r="F23" s="2">
+        <f t="shared" si="1"/>
         <v>-1.1749677587867508E-2</v>
       </c>
       <c r="G23">
         <v>1944192</v>
       </c>
-      <c r="H23" s="1">
-        <f t="shared" ref="H23:I23" si="42">(G23-$B23)/$B23</f>
-        <v>-8.178657133062343E-3</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="2"/>
+      <c r="H23" s="2">
+        <f t="shared" si="0"/>
         <v>-2.2071635232526789E-2</v>
       </c>
-      <c r="J23">
-        <v>1937576</v>
-      </c>
-      <c r="K23" s="1">
-        <f t="shared" ref="K23" si="43">(J23-$B23)/$B23</f>
-        <v>-1.1553781608632482E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -1419,36 +1199,25 @@
         <v>2808248</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.13155137788866647</v>
       </c>
       <c r="E24">
         <v>2445296</v>
       </c>
-      <c r="F24" s="1">
-        <f t="shared" si="0"/>
+      <c r="F24" s="2">
+        <f t="shared" si="1"/>
         <v>-1.469597480505833E-2</v>
       </c>
       <c r="G24">
         <v>2587568</v>
       </c>
-      <c r="H24" s="1">
-        <f t="shared" ref="H24:I24" si="44">(G24-$B24)/$B24</f>
-        <v>4.2630898617437248E-2</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="2"/>
+      <c r="H24" s="2">
+        <f t="shared" si="0"/>
         <v>-7.858280322820492E-2</v>
       </c>
-      <c r="J24">
-        <v>2452904</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" ref="K24" si="45">(J24-$B24)/$B24</f>
-        <v>-1.1630418314685337E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -1459,36 +1228,25 @@
         <v>2590160</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.11930830155673636</v>
       </c>
       <c r="E25">
         <v>2295576</v>
       </c>
-      <c r="F25" s="1">
-        <f t="shared" si="0"/>
+      <c r="F25" s="2">
+        <f t="shared" si="1"/>
         <v>-7.9928368693800364E-3</v>
       </c>
       <c r="G25">
         <v>2403624</v>
       </c>
-      <c r="H25" s="1">
-        <f t="shared" ref="H25:I25" si="46">(G25-$B25)/$B25</f>
-        <v>3.8698882316539847E-2</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" si="2"/>
+      <c r="H25" s="2">
+        <f t="shared" si="0"/>
         <v>-7.2017172684312944E-2</v>
       </c>
-      <c r="J25">
-        <v>2296272</v>
-      </c>
-      <c r="K25" s="1">
-        <f t="shared" ref="K25" si="47">(J25-$B25)/$B25</f>
-        <v>-7.6920683539665148E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -1499,55 +1257,819 @@
         <v>1315328</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.1532623486665825</v>
       </c>
       <c r="E26">
         <v>1063744</v>
       </c>
-      <c r="F26" s="1">
-        <f t="shared" si="0"/>
+      <c r="F26" s="2">
+        <f t="shared" si="1"/>
         <v>-6.7323204691160585E-2</v>
       </c>
       <c r="G26">
         <v>1086968</v>
       </c>
-      <c r="H26" s="1">
-        <f t="shared" ref="H26:I26" si="48">(G26-$B26)/$B26</f>
-        <v>-4.6960705918662235E-2</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" si="2"/>
+      <c r="H26" s="2">
+        <f t="shared" si="0"/>
         <v>-0.17361449007395874</v>
       </c>
-      <c r="J26">
-        <v>1070208</v>
-      </c>
-      <c r="K26" s="1">
-        <f t="shared" ref="K26" si="49">(J26-$B26)/$B26</f>
-        <v>-6.1655654223307099E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="D27" s="1">
         <f>AVERAGE(D2:D26)</f>
         <v>5.2740769223843881E-2</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <f>AVERAGE(F2:F26)</f>
         <v>-2.4998873068029143E-2</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H27" s="2">
         <f>AVERAGE(H2:H26)</f>
-        <v>-1.1271378306687419E-2</v>
-      </c>
-      <c r="I27" s="1">
-        <f>AVERAGE(I2:I26)</f>
         <v>-5.9833502509802322E-2</v>
       </c>
-      <c r="K27" s="1">
-        <f>AVERAGE(K2:K26)</f>
-        <v>-2.3475085529127419E-2</v>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E34ED69-F809-49FF-9B33-4BAF7EDE2E36}">
+  <dimension ref="A1:H27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2746758</v>
+      </c>
+      <c r="C2">
+        <v>2563056</v>
+      </c>
+      <c r="D2" s="1">
+        <f>(C2-$B2)/$B2</f>
+        <v>-6.6879572208399865E-2</v>
+      </c>
+      <c r="E2">
+        <v>2409427</v>
+      </c>
+      <c r="F2" s="2">
+        <f>(E2-$C2)/$C2</f>
+        <v>-5.9939775018571582E-2</v>
+      </c>
+      <c r="G2">
+        <v>2441979</v>
+      </c>
+      <c r="H2" s="2">
+        <f>(G2-$B2)/$B2</f>
+        <v>-0.11095953848136603</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>2826927</v>
+      </c>
+      <c r="C3">
+        <v>2597348</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:F26" si="0">(C3-$B3)/$B3</f>
+        <v>-8.1211506345936768E-2</v>
+      </c>
+      <c r="E3">
+        <v>2505313</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F26" si="1">(E3-$C3)/$C3</f>
+        <v>-3.5434219827300772E-2</v>
+      </c>
+      <c r="G3">
+        <v>2541455</v>
+      </c>
+      <c r="H3" s="2">
+        <f t="shared" ref="H3:H26" si="2">(G3-$B3)/$B3</f>
+        <v>-0.10098315237712187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>1349130</v>
+      </c>
+      <c r="C4">
+        <v>1318758</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.2512285695225811E-2</v>
+      </c>
+      <c r="E4">
+        <v>1312325</v>
+      </c>
+      <c r="F4" s="2">
+        <f t="shared" si="1"/>
+        <v>-4.8780746732910813E-3</v>
+      </c>
+      <c r="G4">
+        <v>1319542</v>
+      </c>
+      <c r="H4" s="2">
+        <f t="shared" si="2"/>
+        <v>-2.1931170457998857E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>1558426</v>
+      </c>
+      <c r="C5">
+        <v>1457342</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.4862880881094126E-2</v>
+      </c>
+      <c r="E5">
+        <v>1443386</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>-9.5763382925902092E-3</v>
+      </c>
+      <c r="G5">
+        <v>1473833</v>
+      </c>
+      <c r="H5" s="2">
+        <f t="shared" si="2"/>
+        <v>-5.4281050239151557E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>1627085</v>
+      </c>
+      <c r="C6">
+        <v>1590537</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.2462256120608329E-2</v>
+      </c>
+      <c r="E6">
+        <v>1574838</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>-9.8702513679342265E-3</v>
+      </c>
+      <c r="G6">
+        <v>1579512</v>
+      </c>
+      <c r="H6" s="2">
+        <f t="shared" si="2"/>
+        <v>-2.9238177476898872E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>1331632</v>
+      </c>
+      <c r="C7">
+        <v>1268113</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.7700115347183006E-2</v>
+      </c>
+      <c r="E7">
+        <v>1234750</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.6309169608702065E-2</v>
+      </c>
+      <c r="G7">
+        <v>1240869</v>
+      </c>
+      <c r="H7" s="2">
+        <f t="shared" si="2"/>
+        <v>-6.8159221166208081E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1560503</v>
+      </c>
+      <c r="C8">
+        <v>1496168</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.1227091521131326E-2</v>
+      </c>
+      <c r="E8">
+        <v>1462300</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.2636495366830461E-2</v>
+      </c>
+      <c r="G8">
+        <v>1469271</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="2"/>
+        <v>-5.8463200647483539E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9">
+        <v>278807</v>
+      </c>
+      <c r="C9">
+        <v>273663</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.8450038915809142E-2</v>
+      </c>
+      <c r="E9">
+        <v>270532</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.1441078991314135E-2</v>
+      </c>
+      <c r="G9">
+        <v>271535</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="2"/>
+        <v>-2.6082558902753517E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10">
+        <v>300880</v>
+      </c>
+      <c r="C10">
+        <v>286637</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>-4.7337809093326244E-2</v>
+      </c>
+      <c r="E10">
+        <v>284736</v>
+      </c>
+      <c r="F10" s="2">
+        <f t="shared" si="1"/>
+        <v>-6.6320816921751208E-3</v>
+      </c>
+      <c r="G10">
+        <v>288359</v>
+      </c>
+      <c r="H10" s="2">
+        <f t="shared" si="2"/>
+        <v>-4.161459718160064E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>381062</v>
+      </c>
+      <c r="C11">
+        <v>366281</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.8788963475759851E-2</v>
+      </c>
+      <c r="E11">
+        <v>364404</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="1"/>
+        <v>-5.1244809313068379E-3</v>
+      </c>
+      <c r="G11">
+        <v>366587</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
+        <v>-3.7985944544457334E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>304306</v>
+      </c>
+      <c r="C12">
+        <v>288592</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.1638810933731176E-2</v>
+      </c>
+      <c r="E12">
+        <v>280979</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.6379802627931475E-2</v>
+      </c>
+      <c r="G12">
+        <v>282915</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="2"/>
+        <v>-7.029437474121443E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>69897</v>
+      </c>
+      <c r="C13">
+        <v>63272</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>-9.4782322560338778E-2</v>
+      </c>
+      <c r="E13">
+        <v>62055</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.9234416487545834E-2</v>
+      </c>
+      <c r="G13">
+        <v>63535</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="2"/>
+        <v>-9.1019643189264199E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>88467</v>
+      </c>
+      <c r="C14">
+        <v>85573</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.271276295115693E-2</v>
+      </c>
+      <c r="E14">
+        <v>83924</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.9270096876351187E-2</v>
+      </c>
+      <c r="G14">
+        <v>84828</v>
+      </c>
+      <c r="H14" s="2">
+        <f t="shared" si="2"/>
+        <v>-4.113398216284038E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>84996</v>
+      </c>
+      <c r="C15">
+        <v>81845</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.7072332815661913E-2</v>
+      </c>
+      <c r="E15">
+        <v>81451</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" si="1"/>
+        <v>-4.8139776406622278E-3</v>
+      </c>
+      <c r="G15">
+        <v>82364</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="2"/>
+        <v>-3.0966163113558286E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16">
+        <v>82911</v>
+      </c>
+      <c r="C16">
+        <v>77664</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.328472699641785E-2</v>
+      </c>
+      <c r="E16">
+        <v>74921</v>
+      </c>
+      <c r="F16" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.5318809229501445E-2</v>
+      </c>
+      <c r="G16">
+        <v>76034</v>
+      </c>
+      <c r="H16" s="2">
+        <f t="shared" si="2"/>
+        <v>-8.2944362026751581E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17">
+        <v>539117</v>
+      </c>
+      <c r="C17">
+        <v>495161</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.1533322080364748E-2</v>
+      </c>
+      <c r="E17">
+        <v>476181</v>
+      </c>
+      <c r="F17" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.833096709958983E-2</v>
+      </c>
+      <c r="G17">
+        <v>489349</v>
+      </c>
+      <c r="H17" s="2">
+        <f t="shared" si="2"/>
+        <v>-9.2313913306388037E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>493975</v>
+      </c>
+      <c r="C18">
+        <v>461384</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>-6.5977023128700851E-2</v>
+      </c>
+      <c r="E18">
+        <v>449476</v>
+      </c>
+      <c r="F18" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.5809304180465731E-2</v>
+      </c>
+      <c r="G18">
+        <v>459445</v>
+      </c>
+      <c r="H18" s="2">
+        <f t="shared" si="2"/>
+        <v>-6.9902322992054247E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>490450</v>
+      </c>
+      <c r="C19">
+        <v>454403</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.3497808135385867E-2</v>
+      </c>
+      <c r="E19">
+        <v>442611</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.5950532897009923E-2</v>
+      </c>
+      <c r="G19">
+        <v>454385</v>
+      </c>
+      <c r="H19" s="2">
+        <f t="shared" si="2"/>
+        <v>-7.3534509124273631E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>490283</v>
+      </c>
+      <c r="C20">
+        <v>446196</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.9921535113393694E-2</v>
+      </c>
+      <c r="E20">
+        <v>431473</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.2996709966023899E-2</v>
+      </c>
+      <c r="G20">
+        <v>441589</v>
+      </c>
+      <c r="H20" s="2">
+        <f t="shared" si="2"/>
+        <v>-9.9318148905836012E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <v>489573</v>
+      </c>
+      <c r="C21">
+        <v>452689</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.533912205125691E-2</v>
+      </c>
+      <c r="E21">
+        <v>436379</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" si="1"/>
+        <v>-3.6029150255473402E-2</v>
+      </c>
+      <c r="G21">
+        <v>445015</v>
+      </c>
+      <c r="H21" s="2">
+        <f t="shared" si="2"/>
+        <v>-9.1014006082851789E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>456565</v>
+      </c>
+      <c r="C22">
+        <v>418723</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.2884145740475063E-2</v>
+      </c>
+      <c r="E22">
+        <v>407629</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="1"/>
+        <v>-2.6494842652541178E-2</v>
+      </c>
+      <c r="G22">
+        <v>415827</v>
+      </c>
+      <c r="H22" s="2">
+        <f t="shared" si="2"/>
+        <v>-8.9227163711629226E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>263781</v>
+      </c>
+      <c r="C23">
+        <v>257389</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.4232222942516708E-2</v>
+      </c>
+      <c r="E23">
+        <v>254337</v>
+      </c>
+      <c r="F23" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.185753858945021E-2</v>
+      </c>
+      <c r="G23">
+        <v>255849</v>
+      </c>
+      <c r="H23" s="2">
+        <f t="shared" si="2"/>
+        <v>-3.0070399308517293E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>375302</v>
+      </c>
+      <c r="C24">
+        <v>324273</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.13596783390442896</v>
+      </c>
+      <c r="E24">
+        <v>319908</v>
+      </c>
+      <c r="F24" s="2">
+        <f t="shared" si="1"/>
+        <v>-1.3460880184289164E-2</v>
+      </c>
+      <c r="G24">
+        <v>341035</v>
+      </c>
+      <c r="H24" s="2">
+        <f t="shared" si="2"/>
+        <v>-9.1305135597465503E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25">
+        <v>359317</v>
+      </c>
+      <c r="C25">
+        <v>319967</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.10951332667254819</v>
+      </c>
+      <c r="E25">
+        <v>318321</v>
+      </c>
+      <c r="F25" s="2">
+        <f t="shared" si="1"/>
+        <v>-5.1442805039269672E-3</v>
+      </c>
+      <c r="G25">
+        <v>332970</v>
+      </c>
+      <c r="H25" s="2">
+        <f t="shared" si="2"/>
+        <v>-7.3325225358109966E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26">
+        <v>113998</v>
+      </c>
+      <c r="C26">
+        <v>96011</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>-0.15778346988543659</v>
+      </c>
+      <c r="E26">
+        <v>91061</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" si="1"/>
+        <v>-5.1556592473779049E-2</v>
+      </c>
+      <c r="G26">
+        <v>92970</v>
+      </c>
+      <c r="H26" s="2">
+        <f t="shared" si="2"/>
+        <v>-0.18445937648028912</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D27" s="1">
+        <f>AVERAGE(D2:D26)</f>
+        <v>-6.5102931420651544E-2</v>
+      </c>
+      <c r="F27" s="2">
+        <f>AVERAGE(F2:F26)</f>
+        <v>-2.2579594697382323E-2</v>
+      </c>
+      <c r="H27" s="2">
+        <f>AVERAGE(H2:H26)</f>
+        <v>-7.0421093503043361E-2</v>
       </c>
     </row>
   </sheetData>
